--- a/build/reports/logs/report.xlsx
+++ b/build/reports/logs/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>29.11.2017 12:33</t>
   </si>
   <si>
-    <t>29.11.2017 15:58</t>
+    <t>04.12.2017 11:51</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="159" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1163,8 +1163,28 @@
       <name val="Times New Roman"/>
       <sz val="12.0"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1327,11 @@
         <fgColor indexed="48"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="66">
     <border>
@@ -2167,7 +2192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2818,6 +2843,45 @@
     <xf numFmtId="0" fontId="156" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2848,48 +2912,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2900,6 +2925,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="158" fillId="29" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3184,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3197,96 +3237,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="243" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="248"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="248"/>
-      <c r="AE3" s="248"/>
-      <c r="AF3" s="248"/>
-      <c r="AG3" s="248"/>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="248"/>
-      <c r="AJ3" s="248"/>
-      <c r="AK3" s="248"/>
-      <c r="AL3" s="248"/>
-      <c r="AM3" s="248"/>
-      <c r="AN3" s="248"/>
-      <c r="AO3" s="248"/>
-      <c r="AP3" s="248"/>
-      <c r="AQ3" s="248"/>
-      <c r="AR3" s="248"/>
-      <c r="AS3" s="248"/>
-      <c r="AT3" s="248"/>
-      <c r="AU3" s="248"/>
-      <c r="AV3" s="248"/>
-      <c r="AW3" s="248"/>
-      <c r="AX3" s="248"/>
-      <c r="AY3" s="248"/>
-      <c r="AZ3" s="248"/>
-      <c r="BA3" s="248"/>
-      <c r="BB3" s="248"/>
-      <c r="BC3" s="248"/>
-      <c r="BD3" s="248"/>
-      <c r="BE3" s="248"/>
-      <c r="BF3" s="248"/>
-      <c r="BG3" s="248"/>
-      <c r="BH3" s="248"/>
-      <c r="BI3" s="248"/>
-      <c r="BJ3" s="248"/>
-      <c r="BK3" s="248"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="236"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="236"/>
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="236"/>
+      <c r="AJ3" s="236"/>
+      <c r="AK3" s="236"/>
+      <c r="AL3" s="236"/>
+      <c r="AM3" s="236"/>
+      <c r="AN3" s="236"/>
+      <c r="AO3" s="236"/>
+      <c r="AP3" s="236"/>
+      <c r="AQ3" s="236"/>
+      <c r="AR3" s="236"/>
+      <c r="AS3" s="236"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="236"/>
+      <c r="AX3" s="236"/>
+      <c r="AY3" s="236"/>
+      <c r="AZ3" s="236"/>
+      <c r="BA3" s="236"/>
+      <c r="BB3" s="236"/>
+      <c r="BC3" s="236"/>
+      <c r="BD3" s="236"/>
+      <c r="BE3" s="236"/>
+      <c r="BF3" s="236"/>
+      <c r="BG3" s="236"/>
+      <c r="BH3" s="236"/>
+      <c r="BI3" s="236"/>
+      <c r="BJ3" s="236"/>
+      <c r="BK3" s="236"/>
       <c r="BL3" s="9"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="240"/>
+      <c r="A4" s="253"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="253"/>
       <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
@@ -3368,14 +3408,14 @@
       <c r="BL4" s="9"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="246"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="248"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
@@ -3458,14 +3498,14 @@
       <c r="BL5" s="9"/>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
       <c r="G6" s="4">
         <v>2.6</v>
       </c>
@@ -3548,14 +3588,14 @@
       <c r="BL6" s="9"/>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
+      <c r="B7" s="239"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
       <c r="G7" s="4">
         <v>0.8</v>
       </c>
@@ -3638,14 +3678,14 @@
       <c r="BL7" s="9"/>
     </row>
     <row r="8" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="247" t="s">
+      <c r="A8" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="4">
         <v>3.6</v>
       </c>
@@ -3728,14 +3768,14 @@
       <c r="BL8" s="9"/>
     </row>
     <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="253" t="s">
+      <c r="A9" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="4">
         <v>3.6</v>
       </c>
@@ -3818,14 +3858,14 @@
       <c r="BL9" s="9"/>
     </row>
     <row r="10" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="244" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
       <c r="G10" s="10">
         <v>4.8</v>
       </c>
@@ -3908,14 +3948,14 @@
       <c r="BL10" s="9"/>
     </row>
     <row r="11" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="244" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="257"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="257"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
       <c r="G11" s="15">
         <v>0.7</v>
       </c>
@@ -3998,14 +4038,14 @@
       <c r="BL11" s="18"/>
     </row>
     <row r="12" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
       <c r="G12" s="10">
         <v>0.8</v>
       </c>
@@ -4088,14 +4128,14 @@
       <c r="BL12" s="22"/>
     </row>
     <row r="13" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="249" t="s">
+      <c r="A13" s="237" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
       <c r="G13" s="15">
         <v>0.8</v>
       </c>
@@ -4178,14 +4218,14 @@
       <c r="BL13" s="22"/>
     </row>
     <row r="14" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="249"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
       <c r="G14" s="19">
         <v>2</v>
       </c>
@@ -4268,14 +4308,14 @@
       <c r="BL14" s="22"/>
     </row>
     <row r="15" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="258" t="s">
+      <c r="A15" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="246"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="248"/>
       <c r="G15" s="19">
         <v>1</v>
       </c>
@@ -4358,14 +4398,14 @@
       <c r="BL15" s="22"/>
     </row>
     <row r="16" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252" t="s">
+      <c r="A16" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
       <c r="G16" s="19">
         <v>4</v>
       </c>
@@ -4448,14 +4488,14 @@
       <c r="BL16" s="22"/>
     </row>
     <row r="17" spans="1:64" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="254" t="s">
+      <c r="A17" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="255"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
       <c r="G17" s="19">
         <v>9.9</v>
       </c>
@@ -4538,14 +4578,14 @@
       <c r="BL17" s="22"/>
     </row>
     <row r="18" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="255" t="s">
+      <c r="A18" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="255"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="255"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
       <c r="G18" s="19">
         <v>12.6</v>
       </c>
@@ -4628,14 +4668,14 @@
       <c r="BL18" s="22"/>
     </row>
     <row r="19" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="250"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
       <c r="G19" s="19">
         <v>7.2</v>
       </c>
@@ -5010,6 +5050,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="H3:BK3"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -5024,11 +5069,6 @@
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5039,8 +5079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5051,95 +5091,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="249" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="238"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="243" t="s">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="248" t="s">
+      <c r="H3" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="248"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="248"/>
-      <c r="AB3" s="248"/>
-      <c r="AC3" s="248"/>
-      <c r="AD3" s="248"/>
-      <c r="AE3" s="248"/>
-      <c r="AF3" s="248"/>
-      <c r="AG3" s="248"/>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="248"/>
-      <c r="AJ3" s="248"/>
-      <c r="AK3" s="248"/>
-      <c r="AL3" s="248"/>
-      <c r="AM3" s="248"/>
-      <c r="AN3" s="248"/>
-      <c r="AO3" s="248"/>
-      <c r="AP3" s="248"/>
-      <c r="AQ3" s="248"/>
-      <c r="AR3" s="248"/>
-      <c r="AS3" s="248"/>
-      <c r="AT3" s="248"/>
-      <c r="AU3" s="248"/>
-      <c r="AV3" s="248"/>
-      <c r="AW3" s="248"/>
-      <c r="AX3" s="248"/>
-      <c r="AY3" s="248"/>
-      <c r="AZ3" s="248"/>
-      <c r="BA3" s="248"/>
-      <c r="BB3" s="248"/>
-      <c r="BC3" s="248"/>
-      <c r="BD3" s="248"/>
-      <c r="BE3" s="248"/>
-      <c r="BF3" s="248"/>
-      <c r="BG3" s="248"/>
-      <c r="BH3" s="248"/>
-      <c r="BI3" s="248"/>
-      <c r="BJ3" s="248"/>
-      <c r="BK3" s="248"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="236"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="236"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="236"/>
+      <c r="AA3" s="236"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="236"/>
+      <c r="AD3" s="236"/>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="236"/>
+      <c r="AH3" s="236"/>
+      <c r="AI3" s="236"/>
+      <c r="AJ3" s="236"/>
+      <c r="AK3" s="236"/>
+      <c r="AL3" s="236"/>
+      <c r="AM3" s="236"/>
+      <c r="AN3" s="236"/>
+      <c r="AO3" s="236"/>
+      <c r="AP3" s="236"/>
+      <c r="AQ3" s="236"/>
+      <c r="AR3" s="236"/>
+      <c r="AS3" s="236"/>
+      <c r="AT3" s="236"/>
+      <c r="AU3" s="236"/>
+      <c r="AV3" s="236"/>
+      <c r="AW3" s="236"/>
+      <c r="AX3" s="236"/>
+      <c r="AY3" s="236"/>
+      <c r="AZ3" s="236"/>
+      <c r="BA3" s="236"/>
+      <c r="BB3" s="236"/>
+      <c r="BC3" s="236"/>
+      <c r="BD3" s="236"/>
+      <c r="BE3" s="236"/>
+      <c r="BF3" s="236"/>
+      <c r="BG3" s="236"/>
+      <c r="BH3" s="236"/>
+      <c r="BI3" s="236"/>
+      <c r="BJ3" s="236"/>
+      <c r="BK3" s="236"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="240"/>
+      <c r="A4" s="253"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="253"/>
       <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
@@ -5206,14 +5246,14 @@
       <c r="BK4" s="9"/>
     </row>
     <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="244" t="s">
+      <c r="A5" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
-      <c r="E5" s="245"/>
-      <c r="F5" s="246"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="248"/>
       <c r="G5" s="4">
         <v>2.7</v>
       </c>
@@ -5226,7 +5266,9 @@
       <c r="J5" s="221">
         <v>2.5309999999999997</v>
       </c>
-      <c r="K5" s="76"/>
+      <c r="K5" s="264" t="n">
+        <v>2.5229999999999997</v>
+      </c>
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="N5" s="30"/>
@@ -5281,14 +5323,14 @@
       <c r="BK5" s="9"/>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="239" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="251"/>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
       <c r="G6" s="4">
         <v>1.3</v>
       </c>
@@ -5301,7 +5343,9 @@
       <c r="J6" s="220">
         <v>2.0379999999999998</v>
       </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="265" t="n">
+        <v>1.248</v>
+      </c>
       <c r="L6" s="79"/>
       <c r="M6" s="80"/>
       <c r="N6" s="40"/>
@@ -5356,14 +5400,14 @@
       <c r="BK6" s="9"/>
     </row>
     <row r="7" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
+      <c r="B7" s="239"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
       <c r="G7" s="4">
         <v>19</v>
       </c>
@@ -5376,7 +5420,9 @@
       <c r="J7" s="222">
         <v>6.1239999999999997</v>
       </c>
-      <c r="K7" s="76"/>
+      <c r="K7" s="266" t="n">
+        <v>6.178</v>
+      </c>
       <c r="L7" s="77"/>
       <c r="M7" s="78"/>
       <c r="N7" s="12"/>
@@ -5431,14 +5477,14 @@
       <c r="BK7" s="9"/>
     </row>
     <row r="8" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="247" t="s">
+      <c r="A8" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="4">
         <v>1.8</v>
       </c>
@@ -5451,7 +5497,9 @@
       <c r="J8" s="223">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K8" s="76"/>
+      <c r="K8" s="267" t="n">
+        <v>0.072</v>
+      </c>
       <c r="L8" s="77"/>
       <c r="M8" s="78"/>
       <c r="N8" s="12"/>
@@ -5506,14 +5554,14 @@
       <c r="BK8" s="9"/>
     </row>
     <row r="9" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="253" t="s">
+      <c r="A9" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="253"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="4">
         <v>1</v>
       </c>
@@ -5526,7 +5574,9 @@
       <c r="J9" s="224">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K9" s="81"/>
+      <c r="K9" s="268" t="n">
+        <v>0.037</v>
+      </c>
       <c r="L9" s="82"/>
       <c r="M9" s="83"/>
       <c r="N9" s="13"/>
@@ -5581,14 +5631,14 @@
       <c r="BK9" s="9"/>
     </row>
     <row r="10" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="256" t="s">
+      <c r="A10" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="257"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
       <c r="G10" s="4">
         <v>11</v>
       </c>
@@ -5656,14 +5706,14 @@
       <c r="BK10" s="9"/>
     </row>
     <row r="11" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="256" t="s">
+      <c r="A11" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="257"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="257"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="257"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
       <c r="G11" s="4">
         <v>6.3</v>
       </c>
@@ -5731,14 +5781,14 @@
       <c r="BK11" s="18"/>
     </row>
     <row r="12" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
       <c r="G12" s="4">
         <v>1.6</v>
       </c>
@@ -5806,14 +5856,14 @@
       <c r="BK12" s="22"/>
     </row>
     <row r="13" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="249" t="s">
+      <c r="A13" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
       <c r="G13" s="4">
         <v>1.7</v>
       </c>
@@ -5881,14 +5931,14 @@
       <c r="BK13" s="22"/>
     </row>
     <row r="14" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="249"/>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
       <c r="G14" s="4">
         <v>1.7</v>
       </c>
@@ -5956,14 +6006,14 @@
       <c r="BK14" s="22"/>
     </row>
     <row r="15" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="258" t="s">
+      <c r="A15" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="259"/>
-      <c r="C15" s="259"/>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="246"/>
+      <c r="B15" s="247"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="248"/>
       <c r="G15" s="4">
         <v>5.4</v>
       </c>
@@ -6031,14 +6081,14 @@
       <c r="BK15" s="22"/>
     </row>
     <row r="16" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252" t="s">
+      <c r="A16" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="253"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="253"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
@@ -6106,14 +6156,14 @@
       <c r="BK16" s="22"/>
     </row>
     <row r="17" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="254" t="s">
+      <c r="A17" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="255"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
       <c r="G17" s="4">
         <v>3.6</v>
       </c>
@@ -6181,14 +6231,14 @@
       <c r="BK17" s="22"/>
     </row>
     <row r="18" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="255" t="s">
+      <c r="A18" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="255"/>
-      <c r="C18" s="255"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="255"/>
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="243"/>
       <c r="G18" s="4">
         <v>6</v>
       </c>
@@ -6256,14 +6306,14 @@
       <c r="BK18" s="22"/>
     </row>
     <row r="19" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="250" t="s">
+      <c r="A19" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="250"/>
-      <c r="C19" s="250"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
       <c r="G19" s="4">
         <v>18</v>
       </c>
@@ -7165,6 +7215,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:BK3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A23:F23"/>
@@ -7178,18 +7240,6 @@
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:BK3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/build/reports/logs/report.xlsx
+++ b/build/reports/logs/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>Действие</t>
   </si>
@@ -175,7 +175,67 @@
     <t>29.11.2017 12:33</t>
   </si>
   <si>
-    <t>04.12.2017 11:51</t>
+    <t>04.12.2017 12:12</t>
+  </si>
+  <si>
+    <t>04.12.2017 12:30</t>
+  </si>
+  <si>
+    <t>04.12.2017 12:57</t>
+  </si>
+  <si>
+    <t>04.12.2017 13:20</t>
+  </si>
+  <si>
+    <t>04.12.2017 13:36</t>
+  </si>
+  <si>
+    <t>04.12.2017 14:18</t>
+  </si>
+  <si>
+    <t>04.12.2017 14:42</t>
+  </si>
+  <si>
+    <t>04.12.2017 15:17</t>
+  </si>
+  <si>
+    <t>04.12.17 16:04</t>
+  </si>
+  <si>
+    <t>04.12.17 16:08</t>
+  </si>
+  <si>
+    <t>04.12.17 16:33</t>
+  </si>
+  <si>
+    <t>04.12.17 16:49</t>
+  </si>
+  <si>
+    <t>04.12.17 17:00</t>
+  </si>
+  <si>
+    <t>04.12.17 17:19</t>
+  </si>
+  <si>
+    <t>04.12.17 17:46</t>
+  </si>
+  <si>
+    <t>04.12.17 18:13</t>
+  </si>
+  <si>
+    <t>04.12.17 20:50</t>
+  </si>
+  <si>
+    <t>04.12.17 21:17</t>
+  </si>
+  <si>
+    <t>04.12.17 21:48</t>
+  </si>
+  <si>
+    <t>04.12.17 22:38</t>
+  </si>
+  <si>
+    <t>05.12.17 09:55</t>
   </si>
 </sst>
 </file>
@@ -183,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="297" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,12 +360,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1156,20 +1210,596 @@
       <charset val="204"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1184,7 +1814,7 @@
       <sz val="12.0"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,11 +1959,484 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="212">
     <border>
       <left/>
       <right/>
@@ -2153,6 +3256,684 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
       <bottom style="thin"/>
     </border>
     <border>
@@ -2192,7 +3973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2346,7 +4127,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,9 +4149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2381,16 +4162,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,15 +4183,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2438,23 +4219,17 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,16 +4245,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2497,10 +4272,10 @@
     <xf numFmtId="0" fontId="46" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2515,7 +4290,46 @@
     <xf numFmtId="0" fontId="52" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2527,52 +4341,13 @@
     <xf numFmtId="0" fontId="65" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,32 +4369,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="14" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,46 +4412,46 @@
     <xf numFmtId="0" fontId="92" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="105" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2689,9 +4464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="110" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2701,7 +4473,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="119" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="118" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,10 +4494,10 @@
     <xf numFmtId="0" fontId="117" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="130" fillId="20" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2755,13 +4530,10 @@
     <xf numFmtId="0" fontId="129" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="131" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2774,7 +4546,10 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="139" fillId="22" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="134" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2792,10 +4567,10 @@
     <xf numFmtId="0" fontId="138" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="23" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="25" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="153" fillId="25" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2834,13 +4609,10 @@
     <xf numFmtId="0" fontId="152" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="154" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="155" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2921,25 +4693,313 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="27" borderId="61" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="29" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="30" borderId="65" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="27" borderId="63" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="30" borderId="67" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="31" borderId="67" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="31" borderId="67" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="31" borderId="67" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="33" borderId="71" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="36" borderId="75" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="37" borderId="75" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="37" borderId="75" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="37" borderId="75" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="39" borderId="79" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="42" borderId="83" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="43" borderId="83" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="43" borderId="83" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="43" borderId="83" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="45" borderId="87" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="48" borderId="91" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="49" borderId="91" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="49" borderId="91" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="49" borderId="91" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="51" borderId="95" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="54" borderId="99" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="55" borderId="99" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="55" borderId="99" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="55" borderId="99" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="57" borderId="103" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="60" borderId="107" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="61" borderId="107" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="61" borderId="107" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="61" borderId="107" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="63" borderId="111" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="66" borderId="115" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="67" borderId="115" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="67" borderId="115" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="67" borderId="115" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="69" borderId="119" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="72" borderId="123" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="73" borderId="123" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="73" borderId="123" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="73" borderId="123" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="75" borderId="127" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="78" borderId="131" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="79" borderId="131" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="79" borderId="131" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="79" borderId="131" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="81" borderId="135" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="84" borderId="139" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="85" borderId="139" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="85" borderId="139" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="85" borderId="139" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="87" borderId="143" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="90" borderId="147" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="91" borderId="147" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="91" borderId="147" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="91" borderId="147" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="93" borderId="151" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="96" borderId="155" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="97" borderId="155" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="97" borderId="155" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="97" borderId="155" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="99" borderId="159" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="102" borderId="163" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="103" borderId="163" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="103" borderId="163" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="103" borderId="163" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="105" borderId="167" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="108" borderId="171" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="109" borderId="171" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="109" borderId="171" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="109" borderId="171" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="111" borderId="175" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="114" borderId="179" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="115" borderId="179" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="115" borderId="179" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="115" borderId="179" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="117" borderId="183" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="120" borderId="187" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="121" borderId="187" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="121" borderId="187" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="121" borderId="187" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="123" borderId="191" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="126" borderId="195" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="127" borderId="195" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="127" borderId="195" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="127" borderId="195" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="129" borderId="199" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="132" borderId="203" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="133" borderId="203" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="133" borderId="203" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="133" borderId="203" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="135" borderId="207" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="138" borderId="211" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="139" borderId="211" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="139" borderId="211" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="139" borderId="211" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3224,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3237,96 +5297,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="256" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="236" t="s">
+      <c r="H3" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
-      <c r="X3" s="236"/>
-      <c r="Y3" s="236"/>
-      <c r="Z3" s="236"/>
-      <c r="AA3" s="236"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="236"/>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="236"/>
-      <c r="AJ3" s="236"/>
-      <c r="AK3" s="236"/>
-      <c r="AL3" s="236"/>
-      <c r="AM3" s="236"/>
-      <c r="AN3" s="236"/>
-      <c r="AO3" s="236"/>
-      <c r="AP3" s="236"/>
-      <c r="AQ3" s="236"/>
-      <c r="AR3" s="236"/>
-      <c r="AS3" s="236"/>
-      <c r="AT3" s="236"/>
-      <c r="AU3" s="236"/>
-      <c r="AV3" s="236"/>
-      <c r="AW3" s="236"/>
-      <c r="AX3" s="236"/>
-      <c r="AY3" s="236"/>
-      <c r="AZ3" s="236"/>
-      <c r="BA3" s="236"/>
-      <c r="BB3" s="236"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="236"/>
-      <c r="BH3" s="236"/>
-      <c r="BI3" s="236"/>
-      <c r="BJ3" s="236"/>
-      <c r="BK3" s="236"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="233"/>
+      <c r="AE3" s="233"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="233"/>
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="233"/>
+      <c r="AJ3" s="233"/>
+      <c r="AK3" s="233"/>
+      <c r="AL3" s="233"/>
+      <c r="AM3" s="233"/>
+      <c r="AN3" s="233"/>
+      <c r="AO3" s="233"/>
+      <c r="AP3" s="233"/>
+      <c r="AQ3" s="233"/>
+      <c r="AR3" s="233"/>
+      <c r="AS3" s="233"/>
+      <c r="AT3" s="233"/>
+      <c r="AU3" s="233"/>
+      <c r="AV3" s="233"/>
+      <c r="AW3" s="233"/>
+      <c r="AX3" s="233"/>
+      <c r="AY3" s="233"/>
+      <c r="AZ3" s="233"/>
+      <c r="BA3" s="233"/>
+      <c r="BB3" s="233"/>
+      <c r="BC3" s="233"/>
+      <c r="BD3" s="233"/>
+      <c r="BE3" s="233"/>
+      <c r="BF3" s="233"/>
+      <c r="BG3" s="233"/>
+      <c r="BH3" s="233"/>
+      <c r="BI3" s="233"/>
+      <c r="BJ3" s="233"/>
+      <c r="BK3" s="233"/>
       <c r="BL3" s="9"/>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="253"/>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="253"/>
+      <c r="A4" s="250"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="250"/>
       <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
@@ -3336,50 +5396,90 @@
       <c r="J4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="151" t="s">
+      <c r="O4" s="148" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="209" t="s">
+      <c r="Q4" s="206" t="s">
         <v>49</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
+      <c r="S4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
@@ -3408,14 +5508,14 @@
       <c r="BL4" s="9"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="248"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
@@ -3425,41 +5525,41 @@
       <c r="I5" s="61">
         <v>3.4739999999999998</v>
       </c>
-      <c r="J5" s="101">
+      <c r="J5" s="98">
         <v>6.1790000000000003</v>
       </c>
-      <c r="K5" s="110">
+      <c r="K5" s="107">
         <v>4.1360000000000001</v>
       </c>
-      <c r="L5" s="117">
+      <c r="L5" s="114">
         <v>8.5259999999999998</v>
       </c>
-      <c r="M5" s="141">
+      <c r="M5" s="138">
         <v>2.9849999999999999</v>
       </c>
-      <c r="N5" s="158">
+      <c r="N5" s="155">
         <v>3.3919999999999995</v>
       </c>
-      <c r="O5" s="177">
+      <c r="O5" s="174">
         <v>3.1139999999999999</v>
       </c>
-      <c r="P5" s="188">
+      <c r="P5" s="185">
         <v>3.2079999999999997</v>
       </c>
-      <c r="Q5" s="213">
+      <c r="Q5" s="210">
         <v>3.2360000000000007</v>
       </c>
       <c r="R5" s="33"/>
-      <c r="S5" s="152"/>
+      <c r="S5" s="149"/>
       <c r="T5" s="35"/>
       <c r="U5" s="36"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="127"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="169"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="124"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
@@ -3498,14 +5598,14 @@
       <c r="BL5" s="9"/>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="G6" s="4">
         <v>2.6</v>
       </c>
@@ -3515,41 +5615,41 @@
       <c r="I6" s="62">
         <v>1.179</v>
       </c>
-      <c r="J6" s="102">
+      <c r="J6" s="99">
         <v>1.3640000000000001</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="108">
         <v>1.361</v>
       </c>
-      <c r="L6" s="118">
+      <c r="L6" s="115">
         <v>1.45</v>
       </c>
-      <c r="M6" s="142">
+      <c r="M6" s="139">
         <v>1.6659999999999999</v>
       </c>
-      <c r="N6" s="159">
+      <c r="N6" s="156">
         <v>1.258</v>
       </c>
-      <c r="O6" s="178">
+      <c r="O6" s="175">
         <v>1.18</v>
       </c>
-      <c r="P6" s="189">
+      <c r="P6" s="186">
         <v>1.19</v>
       </c>
-      <c r="Q6" s="214">
+      <c r="Q6" s="211">
         <v>1.31</v>
       </c>
       <c r="R6" s="42"/>
-      <c r="S6" s="153"/>
+      <c r="S6" s="150"/>
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="173"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="128"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="166"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="170"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="125"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
@@ -3588,14 +5688,14 @@
       <c r="BL6" s="9"/>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
       <c r="G7" s="4">
         <v>0.8</v>
       </c>
@@ -3605,41 +5705,41 @@
       <c r="I7" s="61">
         <v>1.9930000000000001</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="98">
         <v>2.88</v>
       </c>
-      <c r="K7" s="110">
+      <c r="K7" s="107">
         <v>2.3530000000000002</v>
       </c>
-      <c r="L7" s="117">
+      <c r="L7" s="114">
         <v>2.6930000000000001</v>
       </c>
-      <c r="M7" s="141">
+      <c r="M7" s="138">
         <v>3.0619999999999998</v>
       </c>
-      <c r="N7" s="158">
+      <c r="N7" s="155">
         <v>2.0840000000000001</v>
       </c>
-      <c r="O7" s="177">
+      <c r="O7" s="174">
         <v>2.0779999999999998</v>
       </c>
-      <c r="P7" s="188">
+      <c r="P7" s="185">
         <v>2.2280000000000002</v>
       </c>
-      <c r="Q7" s="213">
+      <c r="Q7" s="210">
         <v>1.8759999999999999</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="152"/>
+      <c r="S7" s="149"/>
       <c r="T7" s="35"/>
       <c r="U7" s="45"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="167"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="127"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="164"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="124"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
@@ -3678,14 +5778,14 @@
       <c r="BL7" s="9"/>
     </row>
     <row r="8" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
       <c r="G8" s="4">
         <v>3.6</v>
       </c>
@@ -3695,41 +5795,41 @@
       <c r="I8" s="61">
         <v>5.5289999999999999</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="98">
         <v>5.4779999999999998</v>
       </c>
-      <c r="K8" s="110">
+      <c r="K8" s="107">
         <v>6.5439999999999996</v>
       </c>
-      <c r="L8" s="117">
+      <c r="L8" s="114">
         <v>5.6890000000000001</v>
       </c>
-      <c r="M8" s="141">
+      <c r="M8" s="138">
         <v>5.7990000000000004</v>
       </c>
-      <c r="N8" s="158">
+      <c r="N8" s="155">
         <v>4.7300000000000004</v>
       </c>
-      <c r="O8" s="177">
+      <c r="O8" s="174">
         <v>5.508</v>
       </c>
-      <c r="P8" s="188">
+      <c r="P8" s="185">
         <v>5.3159999999999998</v>
       </c>
-      <c r="Q8" s="213">
+      <c r="Q8" s="210">
         <v>6.5979999999999999</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="152"/>
+      <c r="S8" s="149"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="125"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="164"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="122"/>
       <c r="AA8" s="27"/>
-      <c r="AB8" s="127"/>
+      <c r="AB8" s="124"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
@@ -3768,14 +5868,14 @@
       <c r="BL8" s="9"/>
     </row>
     <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="G9" s="4">
         <v>3.6</v>
       </c>
@@ -3785,41 +5885,41 @@
       <c r="I9" s="63">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="100">
         <v>0.54100000000000004</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="109">
         <v>0.54200000000000004</v>
       </c>
-      <c r="L9" s="119">
+      <c r="L9" s="116">
         <v>0.52300000000000002</v>
       </c>
-      <c r="M9" s="143">
+      <c r="M9" s="140">
         <v>0.51900000000000002</v>
       </c>
-      <c r="N9" s="143">
+      <c r="N9" s="140">
         <v>0.98499999999999999</v>
       </c>
-      <c r="O9" s="177">
+      <c r="O9" s="174">
         <v>5.6790000000000003</v>
       </c>
-      <c r="P9" s="188">
+      <c r="P9" s="185">
         <v>6.0339999999999998</v>
       </c>
-      <c r="Q9" s="213">
+      <c r="Q9" s="210">
         <v>6.12</v>
       </c>
       <c r="R9" s="7"/>
-      <c r="S9" s="152"/>
+      <c r="S9" s="149"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="131"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="128"/>
       <c r="AA9" s="27"/>
-      <c r="AB9" s="132"/>
+      <c r="AB9" s="129"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
@@ -3858,14 +5958,14 @@
       <c r="BL9" s="9"/>
     </row>
     <row r="10" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="10">
         <v>4.8</v>
       </c>
@@ -3875,41 +5975,41 @@
       <c r="I10" s="64">
         <v>4.7619999999999996</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="98">
         <v>5.0880000000000001</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="107">
         <v>5.8550000000000004</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="114">
         <v>5.6920000000000002</v>
       </c>
-      <c r="M10" s="144">
+      <c r="M10" s="141">
         <v>3.7330000000000001</v>
       </c>
-      <c r="N10" s="160">
+      <c r="N10" s="157">
         <v>3.5129999999999999</v>
       </c>
-      <c r="O10" s="177">
+      <c r="O10" s="174">
         <v>5.8</v>
       </c>
-      <c r="P10" s="190">
+      <c r="P10" s="187">
         <v>3.5790000000000002</v>
       </c>
-      <c r="Q10" s="215">
+      <c r="Q10" s="212">
         <v>4.6459999999999999</v>
       </c>
       <c r="R10" s="8"/>
-      <c r="S10" s="154"/>
+      <c r="S10" s="151"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="174"/>
-      <c r="Z10" s="135"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="132"/>
       <c r="AA10" s="27"/>
-      <c r="AB10" s="136"/>
+      <c r="AB10" s="133"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
@@ -3948,14 +6048,14 @@
       <c r="BL10" s="9"/>
     </row>
     <row r="11" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
+      <c r="A11" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="15">
         <v>0.7</v>
       </c>
@@ -3965,41 +6065,41 @@
       <c r="I11" s="61">
         <v>3.2250000000000001</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="98">
         <v>3.74</v>
       </c>
-      <c r="K11" s="110">
+      <c r="K11" s="107">
         <v>4.5259999999999998</v>
       </c>
-      <c r="L11" s="117">
+      <c r="L11" s="114">
         <v>7.2779999999999996</v>
       </c>
-      <c r="M11" s="141">
+      <c r="M11" s="138">
         <v>2.9750000000000001</v>
       </c>
-      <c r="N11" s="158">
+      <c r="N11" s="155">
         <v>2.327</v>
       </c>
-      <c r="O11" s="177">
+      <c r="O11" s="174">
         <v>3.2690000000000001</v>
       </c>
-      <c r="P11" s="188">
+      <c r="P11" s="185">
         <v>3.9990000000000001</v>
       </c>
-      <c r="Q11" s="213">
+      <c r="Q11" s="210">
         <v>2.758</v>
       </c>
       <c r="R11" s="16"/>
-      <c r="S11" s="152"/>
+      <c r="S11" s="149"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="125"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="122"/>
       <c r="AA11" s="28"/>
-      <c r="AB11" s="127"/>
+      <c r="AB11" s="124"/>
       <c r="AC11" s="18"/>
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
@@ -4038,14 +6138,14 @@
       <c r="BL11" s="18"/>
     </row>
     <row r="12" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
       <c r="G12" s="10">
         <v>0.8</v>
       </c>
@@ -4055,41 +6155,41 @@
       <c r="I12" s="61">
         <v>1.875</v>
       </c>
-      <c r="J12" s="101">
+      <c r="J12" s="98">
         <v>1.88</v>
       </c>
-      <c r="K12" s="110">
+      <c r="K12" s="107">
         <v>1.845</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="114">
         <v>2.54</v>
       </c>
-      <c r="M12" s="141">
+      <c r="M12" s="138">
         <v>1.9910000000000001</v>
       </c>
-      <c r="N12" s="158">
+      <c r="N12" s="155">
         <v>1.8540000000000001</v>
       </c>
-      <c r="O12" s="177">
+      <c r="O12" s="174">
         <v>2.02</v>
       </c>
-      <c r="P12" s="188">
+      <c r="P12" s="185">
         <v>1.81</v>
       </c>
-      <c r="Q12" s="213">
+      <c r="Q12" s="210">
         <v>9.5679999999999996</v>
       </c>
       <c r="R12" s="20"/>
-      <c r="S12" s="152"/>
+      <c r="S12" s="149"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="167"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="125"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="122"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="127"/>
+      <c r="AB12" s="124"/>
       <c r="AC12" s="22"/>
       <c r="AD12" s="22"/>
       <c r="AE12" s="22"/>
@@ -4128,14 +6228,14 @@
       <c r="BL12" s="22"/>
     </row>
     <row r="13" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237" t="s">
+      <c r="A13" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="15">
         <v>0.8</v>
       </c>
@@ -4145,41 +6245,41 @@
       <c r="I13" s="61">
         <v>1.5109999999999999</v>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="98">
         <v>1.754</v>
       </c>
-      <c r="K13" s="110">
+      <c r="K13" s="107">
         <v>1.653</v>
       </c>
-      <c r="L13" s="117">
+      <c r="L13" s="114">
         <v>3.1640000000000001</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="138">
         <v>1.5940000000000001</v>
       </c>
-      <c r="N13" s="158">
+      <c r="N13" s="155">
         <v>1.579</v>
       </c>
-      <c r="O13" s="177">
+      <c r="O13" s="174">
         <v>1.38</v>
       </c>
-      <c r="P13" s="188">
+      <c r="P13" s="185">
         <v>1.397</v>
       </c>
-      <c r="Q13" s="213">
+      <c r="Q13" s="210">
         <v>1.55</v>
       </c>
       <c r="R13" s="20"/>
-      <c r="S13" s="152"/>
+      <c r="S13" s="149"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="125"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="122"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="127"/>
+      <c r="AB13" s="124"/>
       <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="22"/>
@@ -4218,14 +6318,14 @@
       <c r="BL13" s="22"/>
     </row>
     <row r="14" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="237" t="s">
+      <c r="A14" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
       <c r="G14" s="19">
         <v>2</v>
       </c>
@@ -4235,41 +6335,41 @@
       <c r="I14" s="65">
         <v>1.48</v>
       </c>
-      <c r="J14" s="104">
+      <c r="J14" s="101">
         <v>1.643</v>
       </c>
-      <c r="K14" s="113">
+      <c r="K14" s="110">
         <v>1.409</v>
       </c>
-      <c r="L14" s="117">
+      <c r="L14" s="114">
         <v>2.7810000000000001</v>
       </c>
-      <c r="M14" s="145">
+      <c r="M14" s="142">
         <v>1.143</v>
       </c>
-      <c r="N14" s="161">
+      <c r="N14" s="158">
         <v>1.115</v>
       </c>
-      <c r="O14" s="179">
+      <c r="O14" s="176">
         <v>1.1819999999999999</v>
       </c>
-      <c r="P14" s="191">
+      <c r="P14" s="188">
         <v>1.1459999999999999</v>
       </c>
-      <c r="Q14" s="216">
+      <c r="Q14" s="213">
         <v>1.1599999999999999</v>
       </c>
       <c r="R14" s="20"/>
-      <c r="S14" s="155"/>
+      <c r="S14" s="152"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="172"/>
-      <c r="Z14" s="125"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="122"/>
       <c r="AA14" s="23"/>
-      <c r="AB14" s="127"/>
+      <c r="AB14" s="124"/>
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
@@ -4308,14 +6408,14 @@
       <c r="BL14" s="22"/>
     </row>
     <row r="15" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="248"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
       <c r="G15" s="19">
         <v>1</v>
       </c>
@@ -4325,41 +6425,41 @@
       <c r="I15" s="61">
         <v>1.823</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="98">
         <v>1.8080000000000001</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="107">
         <v>1.744</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="114">
         <v>1.716</v>
       </c>
-      <c r="M15" s="146">
+      <c r="M15" s="143">
         <v>0.91100000000000003</v>
       </c>
-      <c r="N15" s="158">
+      <c r="N15" s="155">
         <v>1.4359999999999999</v>
       </c>
-      <c r="O15" s="177">
+      <c r="O15" s="174">
         <v>1.08</v>
       </c>
-      <c r="P15" s="188">
+      <c r="P15" s="185">
         <v>1.105</v>
       </c>
-      <c r="Q15" s="213">
+      <c r="Q15" s="210">
         <v>1.1279999999999999</v>
       </c>
       <c r="R15" s="20"/>
-      <c r="S15" s="152"/>
+      <c r="S15" s="149"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
-      <c r="X15" s="167"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="125"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="122"/>
       <c r="AA15" s="23"/>
-      <c r="AB15" s="127"/>
+      <c r="AB15" s="124"/>
       <c r="AC15" s="22"/>
       <c r="AD15" s="22"/>
       <c r="AE15" s="22"/>
@@ -4398,14 +6498,14 @@
       <c r="BL15" s="22"/>
     </row>
     <row r="16" spans="1:64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
       <c r="G16" s="19">
         <v>4</v>
       </c>
@@ -4415,39 +6515,39 @@
       <c r="I16" s="66">
         <v>0.5</v>
       </c>
-      <c r="J16" s="105">
+      <c r="J16" s="102">
         <v>1.3260000000000001</v>
       </c>
-      <c r="K16" s="114">
+      <c r="K16" s="111">
         <v>1.3069999999999999</v>
       </c>
-      <c r="L16" s="120">
+      <c r="L16" s="117">
         <v>1.8560000000000001</v>
       </c>
-      <c r="M16" s="147">
+      <c r="M16" s="144">
         <v>1.204</v>
       </c>
-      <c r="N16" s="162">
+      <c r="N16" s="159">
         <v>1.111</v>
       </c>
-      <c r="O16" s="180">
+      <c r="O16" s="177">
         <v>1.1439999999999999</v>
       </c>
-      <c r="P16" s="192">
+      <c r="P16" s="189">
         <v>1.1479999999999999</v>
       </c>
-      <c r="Q16" s="217">
+      <c r="Q16" s="214">
         <v>1.155</v>
       </c>
       <c r="R16" s="20"/>
-      <c r="S16" s="156"/>
+      <c r="S16" s="153"/>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
-      <c r="X16" s="167"/>
-      <c r="Y16" s="175"/>
-      <c r="Z16" s="139"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="136"/>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="22"/>
@@ -4488,14 +6588,14 @@
       <c r="BL16" s="22"/>
     </row>
     <row r="17" spans="1:64" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="242" t="s">
+      <c r="A17" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="19">
         <v>9.9</v>
       </c>
@@ -4505,39 +6605,39 @@
       <c r="I17" s="67">
         <v>2.73</v>
       </c>
-      <c r="J17" s="106">
+      <c r="J17" s="103">
         <v>2.8109999999999999</v>
       </c>
-      <c r="K17" s="115">
+      <c r="K17" s="112">
         <v>2.6869999999999998</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="118">
         <v>3.48</v>
       </c>
-      <c r="M17" s="148">
+      <c r="M17" s="145">
         <v>3.5550000000000002</v>
       </c>
-      <c r="N17" s="163">
+      <c r="N17" s="160">
         <v>2.7440000000000002</v>
       </c>
-      <c r="O17" s="181">
+      <c r="O17" s="178">
         <v>2.69</v>
       </c>
-      <c r="P17" s="193">
+      <c r="P17" s="190">
         <v>2.5579999999999998</v>
       </c>
-      <c r="Q17" s="218">
+      <c r="Q17" s="215">
         <v>2.9369999999999998</v>
       </c>
       <c r="R17" s="20"/>
-      <c r="S17" s="157"/>
+      <c r="S17" s="154"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="176"/>
-      <c r="Z17" s="140"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="173"/>
+      <c r="Z17" s="137"/>
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="22"/>
@@ -4578,14 +6678,14 @@
       <c r="BL17" s="22"/>
     </row>
     <row r="18" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
       <c r="G18" s="19">
         <v>12.6</v>
       </c>
@@ -4595,28 +6695,28 @@
       <c r="I18" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J18" s="107">
+      <c r="J18" s="104">
         <v>4.3849999999999998</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="113">
         <v>3.9740000000000002</v>
       </c>
-      <c r="L18" s="122">
+      <c r="L18" s="119">
         <v>3.5379999999999998</v>
       </c>
-      <c r="M18" s="149">
+      <c r="M18" s="146">
         <v>4.016</v>
       </c>
-      <c r="N18" s="164">
+      <c r="N18" s="161">
         <v>3.5129999999999999</v>
       </c>
-      <c r="O18" s="182">
+      <c r="O18" s="179">
         <v>4.01</v>
       </c>
-      <c r="P18" s="194">
+      <c r="P18" s="191">
         <v>3.7690000000000001</v>
       </c>
-      <c r="Q18" s="219">
+      <c r="Q18" s="216">
         <v>3.7549999999999999</v>
       </c>
       <c r="R18" s="20"/>
@@ -4668,14 +6768,14 @@
       <c r="BL18" s="22"/>
     </row>
     <row r="19" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="238"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
       <c r="G19" s="19">
         <v>7.2</v>
       </c>
@@ -4685,28 +6785,28 @@
       <c r="I19" s="61">
         <v>10.907</v>
       </c>
-      <c r="J19" s="101">
+      <c r="J19" s="98">
         <v>21.471</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="107">
         <v>10.692</v>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="114">
         <v>26.111000000000001</v>
       </c>
-      <c r="M19" s="141">
+      <c r="M19" s="138">
         <v>15.653</v>
       </c>
-      <c r="N19" s="158">
+      <c r="N19" s="155">
         <v>10.933</v>
       </c>
-      <c r="O19" s="177">
+      <c r="O19" s="174">
         <v>13.56</v>
       </c>
-      <c r="P19" s="188">
+      <c r="P19" s="185">
         <v>10.866</v>
       </c>
-      <c r="Q19" s="213">
+      <c r="Q19" s="210">
         <v>10.976000000000001</v>
       </c>
       <c r="R19" s="16"/>
@@ -5079,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,125 +7191,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="256" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="236" t="s">
+      <c r="H3" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="236"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="236"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
-      <c r="X3" s="236"/>
-      <c r="Y3" s="236"/>
-      <c r="Z3" s="236"/>
-      <c r="AA3" s="236"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="236"/>
-      <c r="AD3" s="236"/>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="236"/>
-      <c r="AG3" s="236"/>
-      <c r="AH3" s="236"/>
-      <c r="AI3" s="236"/>
-      <c r="AJ3" s="236"/>
-      <c r="AK3" s="236"/>
-      <c r="AL3" s="236"/>
-      <c r="AM3" s="236"/>
-      <c r="AN3" s="236"/>
-      <c r="AO3" s="236"/>
-      <c r="AP3" s="236"/>
-      <c r="AQ3" s="236"/>
-      <c r="AR3" s="236"/>
-      <c r="AS3" s="236"/>
-      <c r="AT3" s="236"/>
-      <c r="AU3" s="236"/>
-      <c r="AV3" s="236"/>
-      <c r="AW3" s="236"/>
-      <c r="AX3" s="236"/>
-      <c r="AY3" s="236"/>
-      <c r="AZ3" s="236"/>
-      <c r="BA3" s="236"/>
-      <c r="BB3" s="236"/>
-      <c r="BC3" s="236"/>
-      <c r="BD3" s="236"/>
-      <c r="BE3" s="236"/>
-      <c r="BF3" s="236"/>
-      <c r="BG3" s="236"/>
-      <c r="BH3" s="236"/>
-      <c r="BI3" s="236"/>
-      <c r="BJ3" s="236"/>
-      <c r="BK3" s="236"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="233"/>
+      <c r="N3" s="233"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="233"/>
+      <c r="AE3" s="233"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="233"/>
+      <c r="AH3" s="233"/>
+      <c r="AI3" s="233"/>
+      <c r="AJ3" s="233"/>
+      <c r="AK3" s="233"/>
+      <c r="AL3" s="233"/>
+      <c r="AM3" s="233"/>
+      <c r="AN3" s="233"/>
+      <c r="AO3" s="233"/>
+      <c r="AP3" s="233"/>
+      <c r="AQ3" s="233"/>
+      <c r="AR3" s="233"/>
+      <c r="AS3" s="233"/>
+      <c r="AT3" s="233"/>
+      <c r="AU3" s="233"/>
+      <c r="AV3" s="233"/>
+      <c r="AW3" s="233"/>
+      <c r="AX3" s="233"/>
+      <c r="AY3" s="233"/>
+      <c r="AZ3" s="233"/>
+      <c r="BA3" s="233"/>
+      <c r="BB3" s="233"/>
+      <c r="BC3" s="233"/>
+      <c r="BD3" s="233"/>
+      <c r="BE3" s="233"/>
+      <c r="BF3" s="233"/>
+      <c r="BG3" s="233"/>
+      <c r="BH3" s="233"/>
+      <c r="BI3" s="233"/>
+      <c r="BJ3" s="233"/>
+      <c r="BK3" s="233"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="253"/>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="253"/>
+      <c r="A4" s="250"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="250"/>
       <c r="H4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="210" t="s">
+      <c r="I4" s="207" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="72" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
       <c r="AF4" s="9"/>
@@ -5246,47 +7382,83 @@
       <c r="BK4" s="9"/>
     </row>
     <row r="5" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="254" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="248"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="245"/>
       <c r="G5" s="4">
         <v>2.7</v>
       </c>
-      <c r="H5" s="195">
+      <c r="H5" s="192">
         <v>4.1850000000000005</v>
       </c>
-      <c r="I5" s="211">
+      <c r="I5" s="208">
         <v>4.4480000000000004</v>
       </c>
-      <c r="J5" s="221">
+      <c r="J5" s="218">
         <v>2.5309999999999997</v>
       </c>
-      <c r="K5" s="264" t="n">
-        <v>2.5229999999999997</v>
-      </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
+      <c r="K5" s="268" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="L5" s="273" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="M5" s="278" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="N5" s="283" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="O5" s="288" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="P5" s="293" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="Q5" s="298" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="R5" s="303" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="S5" s="308" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="T5" s="313" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="U5" s="318" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="V5" s="323" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="W5" s="328" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="X5" s="333" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="Y5" s="338" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="Z5" s="343" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="AA5" s="348" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="AB5" s="353" t="n">
+        <v>4.053000000000001</v>
+      </c>
+      <c r="AC5" s="358" t="n">
+        <v>4.053000000000001</v>
+      </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
@@ -5323,47 +7495,83 @@
       <c r="BK5" s="9"/>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="239" t="s">
+      <c r="A6" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="G6" s="4">
         <v>1.3</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="192">
         <v>2.06</v>
       </c>
-      <c r="I6" s="211">
+      <c r="I6" s="208">
         <v>2.3809999999999998</v>
       </c>
-      <c r="J6" s="220">
+      <c r="J6" s="217">
         <v>2.0379999999999998</v>
       </c>
-      <c r="K6" s="265" t="n">
-        <v>1.248</v>
-      </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
+      <c r="K6" s="268" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="L6" s="273" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="M6" s="278" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="N6" s="283" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="O6" s="288" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="P6" s="293" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="Q6" s="298" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="R6" s="303" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="S6" s="308" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="T6" s="313" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="U6" s="318" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="V6" s="323" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="W6" s="328" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="X6" s="333" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="Y6" s="338" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="Z6" s="343" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="AA6" s="348" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="AB6" s="353" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="AC6" s="358" t="n">
+        <v>1.312</v>
+      </c>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
@@ -5400,47 +7608,83 @@
       <c r="BK6" s="9"/>
     </row>
     <row r="7" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="239" t="s">
+      <c r="A7" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
       <c r="G7" s="4">
         <v>19</v>
       </c>
-      <c r="H7" s="195">
+      <c r="H7" s="192">
         <v>19.085999999999999</v>
       </c>
-      <c r="I7" s="212">
+      <c r="I7" s="209">
         <v>10.117000000000001</v>
       </c>
-      <c r="J7" s="222">
+      <c r="J7" s="219">
         <v>6.1239999999999997</v>
       </c>
-      <c r="K7" s="266" t="n">
-        <v>6.178</v>
-      </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
+      <c r="K7" s="269" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="L7" s="274" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="M7" s="279" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="N7" s="284" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="O7" s="289" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="P7" s="294" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="Q7" s="299" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="R7" s="304" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="S7" s="309" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="T7" s="314" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="U7" s="319" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="V7" s="324" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="W7" s="329" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="X7" s="334" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="Y7" s="339" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="Z7" s="344" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="AA7" s="349" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="AB7" s="354" t="n">
+        <v>6.169</v>
+      </c>
+      <c r="AC7" s="359" t="n">
+        <v>6.169</v>
+      </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
@@ -5477,47 +7721,83 @@
       <c r="BK7" s="9"/>
     </row>
     <row r="8" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="259" t="s">
+      <c r="A8" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="259"/>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
       <c r="G8" s="4">
         <v>1.8</v>
       </c>
-      <c r="H8" s="196">
+      <c r="H8" s="193">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I8" s="212">
+      <c r="I8" s="209">
         <v>0.63200000000000001</v>
       </c>
-      <c r="J8" s="223">
+      <c r="J8" s="220">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K8" s="267" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
+      <c r="K8" s="270" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="L8" s="275" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="M8" s="280" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="N8" s="285" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="O8" s="290" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="P8" s="295" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="Q8" s="300" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="R8" s="305" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="S8" s="310" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="T8" s="315" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="U8" s="320" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="V8" s="325" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="W8" s="330" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="X8" s="335" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="Y8" s="340" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="Z8" s="345" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="AA8" s="350" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="AB8" s="355" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="AC8" s="360" t="n">
+        <v>0.073</v>
+      </c>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
@@ -5554,47 +7834,83 @@
       <c r="BK8" s="9"/>
     </row>
     <row r="9" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="197">
+      <c r="H9" s="194">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="I9" s="212">
+      <c r="I9" s="209">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J9" s="224">
+      <c r="J9" s="221">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="K9" s="268" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
+      <c r="K9" s="271" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="L9" s="276" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M9" s="281" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="N9" s="286" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O9" s="291" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="P9" s="296" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Q9" s="301" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="R9" s="306" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="S9" s="311" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="T9" s="316" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="U9" s="321" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="V9" s="326" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="W9" s="331" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="X9" s="336" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Y9" s="341" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Z9" s="346" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AA9" s="351" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AB9" s="356" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AC9" s="361" t="n">
+        <v>0.053</v>
+      </c>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="9"/>
@@ -5631,28 +7947,28 @@
       <c r="BK9" s="9"/>
     </row>
     <row r="10" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="244" t="s">
+      <c r="A10" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
+      <c r="B10" s="242"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="4">
         <v>11</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="195">
         <v>0.05</v>
       </c>
-      <c r="I10" s="212">
+      <c r="I10" s="209">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J10" s="225">
+      <c r="J10" s="222">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
       <c r="M10" s="78"/>
       <c r="N10" s="12"/>
       <c r="O10" s="49"/>
@@ -5706,24 +8022,24 @@
       <c r="BK10" s="9"/>
     </row>
     <row r="11" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
+      <c r="A11" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="4">
         <v>6.3</v>
       </c>
-      <c r="H11" s="199">
+      <c r="H11" s="196">
         <v>2.0139999999999998</v>
       </c>
-      <c r="I11" s="212">
+      <c r="I11" s="209">
         <v>2.7679999999999998</v>
       </c>
-      <c r="J11" s="226">
+      <c r="J11" s="223">
         <v>2.016</v>
       </c>
       <c r="K11" s="76"/>
@@ -5781,24 +8097,24 @@
       <c r="BK11" s="18"/>
     </row>
     <row r="12" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="237"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="234"/>
       <c r="G12" s="4">
         <v>1.6</v>
       </c>
-      <c r="H12" s="195">
+      <c r="H12" s="192">
         <v>3.2040000000000002</v>
       </c>
-      <c r="I12" s="211">
+      <c r="I12" s="208">
         <v>6.9189999999999996</v>
       </c>
-      <c r="J12" s="220">
+      <c r="J12" s="217">
         <v>3.339</v>
       </c>
       <c r="K12" s="76"/>
@@ -5856,24 +8172,24 @@
       <c r="BK12" s="22"/>
     </row>
     <row r="13" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="237" t="s">
+      <c r="A13" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="4">
         <v>1.7</v>
       </c>
-      <c r="H13" s="195">
+      <c r="H13" s="192">
         <v>3.5329999999999999</v>
       </c>
-      <c r="I13" s="211">
+      <c r="I13" s="208">
         <v>3.5190000000000001</v>
       </c>
-      <c r="J13" s="220">
+      <c r="J13" s="217">
         <v>3.4550000000000001</v>
       </c>
       <c r="K13" s="76"/>
@@ -5931,29 +8247,29 @@
       <c r="BK13" s="22"/>
     </row>
     <row r="14" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="237" t="s">
+      <c r="A14" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
       <c r="G14" s="4">
         <v>1.7</v>
       </c>
-      <c r="H14" s="195">
+      <c r="H14" s="192">
         <v>3.4430000000000001</v>
       </c>
-      <c r="I14" s="211">
+      <c r="I14" s="208">
         <v>2.879</v>
       </c>
-      <c r="J14" s="220">
+      <c r="J14" s="217">
         <v>3.4209999999999998</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
       <c r="N14" s="20"/>
       <c r="O14" s="31"/>
       <c r="P14" s="50"/>
@@ -6006,24 +8322,24 @@
       <c r="BK14" s="22"/>
     </row>
     <row r="15" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="248"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
       <c r="G15" s="4">
         <v>5.4</v>
       </c>
-      <c r="H15" s="200">
+      <c r="H15" s="197">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I15" s="212">
+      <c r="I15" s="209">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J15" s="227">
+      <c r="J15" s="224">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="K15" s="76"/>
@@ -6081,29 +8397,29 @@
       <c r="BK15" s="22"/>
     </row>
     <row r="16" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
-      <c r="E16" s="241"/>
-      <c r="F16" s="241"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
       <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="201">
+      <c r="H16" s="198">
         <v>0.53800000000000003</v>
       </c>
-      <c r="I16" s="212">
+      <c r="I16" s="209">
         <v>0.49299999999999999</v>
       </c>
-      <c r="J16" s="228">
+      <c r="J16" s="225">
         <v>0.59399999999999997</v>
       </c>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="20"/>
       <c r="O16" s="49"/>
       <c r="P16" s="50"/>
@@ -6156,29 +8472,29 @@
       <c r="BK16" s="22"/>
     </row>
     <row r="17" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="242" t="s">
+      <c r="A17" s="239" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="243"/>
-      <c r="C17" s="243"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="243"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="4">
         <v>3.6</v>
       </c>
-      <c r="H17" s="195">
+      <c r="H17" s="192">
         <v>3.835</v>
       </c>
-      <c r="I17" s="211">
+      <c r="I17" s="208">
         <v>3.7879999999999998</v>
       </c>
-      <c r="J17" s="220">
+      <c r="J17" s="217">
         <v>3.8660000000000001</v>
       </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="94"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="20"/>
       <c r="O17" s="49"/>
       <c r="P17" s="50"/>
@@ -6231,29 +8547,29 @@
       <c r="BK17" s="22"/>
     </row>
     <row r="18" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
       <c r="G18" s="4">
         <v>6</v>
       </c>
-      <c r="H18" s="202">
+      <c r="H18" s="199">
         <v>3.895</v>
       </c>
-      <c r="I18" s="212">
+      <c r="I18" s="209">
         <v>4.46</v>
       </c>
-      <c r="J18" s="229">
+      <c r="J18" s="226">
         <v>4.09</v>
       </c>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="94"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="19"/>
@@ -6306,28 +8622,28 @@
       <c r="BK18" s="22"/>
     </row>
     <row r="19" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238" t="s">
+      <c r="A19" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="238"/>
-      <c r="F19" s="238"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
       <c r="G19" s="4">
         <v>18</v>
       </c>
-      <c r="H19" s="203">
+      <c r="H19" s="200">
         <v>10.051</v>
       </c>
-      <c r="I19" s="212">
+      <c r="I19" s="209">
         <v>12.055999999999999</v>
       </c>
-      <c r="J19" s="230">
+      <c r="J19" s="227">
         <v>12.502000000000001</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="78"/>
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
@@ -6381,837 +8697,837 @@
       <c r="BK19" s="71"/>
     </row>
     <row r="20" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="260" t="s">
+      <c r="A20" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="260"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="257"/>
       <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="204">
+      <c r="H20" s="201">
         <v>0.05</v>
       </c>
-      <c r="I20" s="212">
+      <c r="I20" s="209">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J20" s="231">
+      <c r="J20" s="228">
         <v>0.05</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
-      <c r="AX20" s="100"/>
-      <c r="AY20" s="100"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="100"/>
-      <c r="BB20" s="100"/>
-      <c r="BC20" s="100"/>
-      <c r="BD20" s="100"/>
-      <c r="BE20" s="100"/>
-      <c r="BF20" s="100"/>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="100"/>
-      <c r="BI20" s="100"/>
-      <c r="BJ20" s="100"/>
-      <c r="BK20" s="100"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="97"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="97"/>
+      <c r="AY20" s="97"/>
+      <c r="AZ20" s="97"/>
+      <c r="BA20" s="97"/>
+      <c r="BB20" s="97"/>
+      <c r="BC20" s="97"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="97"/>
+      <c r="BH20" s="97"/>
+      <c r="BI20" s="97"/>
+      <c r="BJ20" s="97"/>
+      <c r="BK20" s="97"/>
     </row>
     <row r="21" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="257"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="257"/>
       <c r="G21" s="4">
         <v>4.5</v>
       </c>
-      <c r="H21" s="205">
+      <c r="H21" s="202">
         <v>1.5429999999999999</v>
       </c>
-      <c r="I21" s="211">
+      <c r="I21" s="208">
         <v>8.4109999999999996</v>
       </c>
-      <c r="J21" s="232">
+      <c r="J21" s="229">
         <v>1.8759999999999999</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="100"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="100"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="100"/>
-      <c r="AU21" s="100"/>
-      <c r="AV21" s="100"/>
-      <c r="AW21" s="100"/>
-      <c r="AX21" s="100"/>
-      <c r="AY21" s="100"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="100"/>
-      <c r="BB21" s="100"/>
-      <c r="BC21" s="100"/>
-      <c r="BD21" s="100"/>
-      <c r="BE21" s="100"/>
-      <c r="BF21" s="100"/>
-      <c r="BG21" s="100"/>
-      <c r="BH21" s="100"/>
-      <c r="BI21" s="100"/>
-      <c r="BJ21" s="100"/>
-      <c r="BK21" s="100"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="97"/>
+      <c r="AW21" s="97"/>
+      <c r="AX21" s="97"/>
+      <c r="AY21" s="97"/>
+      <c r="AZ21" s="97"/>
+      <c r="BA21" s="97"/>
+      <c r="BB21" s="97"/>
+      <c r="BC21" s="97"/>
+      <c r="BD21" s="97"/>
+      <c r="BE21" s="97"/>
+      <c r="BF21" s="97"/>
+      <c r="BG21" s="97"/>
+      <c r="BH21" s="97"/>
+      <c r="BI21" s="97"/>
+      <c r="BJ21" s="97"/>
+      <c r="BK21" s="97"/>
     </row>
     <row r="22" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="260" t="s">
+      <c r="A22" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="260"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
       <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="H22" s="206">
+      <c r="H22" s="203">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="I22" s="212">
+      <c r="I22" s="209">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J22" s="233">
+      <c r="J22" s="230">
         <v>4.7E-2</v>
       </c>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="100"/>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="100"/>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="100"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="100"/>
-      <c r="AL22" s="100"/>
-      <c r="AM22" s="100"/>
-      <c r="AN22" s="100"/>
-      <c r="AO22" s="100"/>
-      <c r="AP22" s="100"/>
-      <c r="AQ22" s="100"/>
-      <c r="AR22" s="100"/>
-      <c r="AS22" s="100"/>
-      <c r="AT22" s="100"/>
-      <c r="AU22" s="100"/>
-      <c r="AV22" s="100"/>
-      <c r="AW22" s="100"/>
-      <c r="AX22" s="100"/>
-      <c r="AY22" s="100"/>
-      <c r="AZ22" s="100"/>
-      <c r="BA22" s="100"/>
-      <c r="BB22" s="100"/>
-      <c r="BC22" s="100"/>
-      <c r="BD22" s="100"/>
-      <c r="BE22" s="100"/>
-      <c r="BF22" s="100"/>
-      <c r="BG22" s="100"/>
-      <c r="BH22" s="100"/>
-      <c r="BI22" s="100"/>
-      <c r="BJ22" s="100"/>
-      <c r="BK22" s="100"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="97"/>
+      <c r="AP22" s="97"/>
+      <c r="AQ22" s="97"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="97"/>
+      <c r="AT22" s="97"/>
+      <c r="AU22" s="97"/>
+      <c r="AV22" s="97"/>
+      <c r="AW22" s="97"/>
+      <c r="AX22" s="97"/>
+      <c r="AY22" s="97"/>
+      <c r="AZ22" s="97"/>
+      <c r="BA22" s="97"/>
+      <c r="BB22" s="97"/>
+      <c r="BC22" s="97"/>
+      <c r="BD22" s="97"/>
+      <c r="BE22" s="97"/>
+      <c r="BF22" s="97"/>
+      <c r="BG22" s="97"/>
+      <c r="BH22" s="97"/>
+      <c r="BI22" s="97"/>
+      <c r="BJ22" s="97"/>
+      <c r="BK22" s="97"/>
     </row>
     <row r="23" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="260" t="s">
+      <c r="A23" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="260"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
+      <c r="B23" s="257"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
       <c r="G23" s="4">
         <v>8.1</v>
       </c>
-      <c r="H23" s="195">
+      <c r="H23" s="192">
         <v>15.279</v>
       </c>
-      <c r="I23" s="211">
+      <c r="I23" s="208">
         <v>13.36</v>
       </c>
-      <c r="J23" s="220">
+      <c r="J23" s="217">
         <v>11.528</v>
       </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="100"/>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="100"/>
-      <c r="AI23" s="100"/>
-      <c r="AJ23" s="100"/>
-      <c r="AK23" s="100"/>
-      <c r="AL23" s="100"/>
-      <c r="AM23" s="100"/>
-      <c r="AN23" s="100"/>
-      <c r="AO23" s="100"/>
-      <c r="AP23" s="100"/>
-      <c r="AQ23" s="100"/>
-      <c r="AR23" s="100"/>
-      <c r="AS23" s="100"/>
-      <c r="AT23" s="100"/>
-      <c r="AU23" s="100"/>
-      <c r="AV23" s="100"/>
-      <c r="AW23" s="100"/>
-      <c r="AX23" s="100"/>
-      <c r="AY23" s="100"/>
-      <c r="AZ23" s="100"/>
-      <c r="BA23" s="100"/>
-      <c r="BB23" s="100"/>
-      <c r="BC23" s="100"/>
-      <c r="BD23" s="100"/>
-      <c r="BE23" s="100"/>
-      <c r="BF23" s="100"/>
-      <c r="BG23" s="100"/>
-      <c r="BH23" s="100"/>
-      <c r="BI23" s="100"/>
-      <c r="BJ23" s="100"/>
-      <c r="BK23" s="100"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="97"/>
+      <c r="AW23" s="97"/>
+      <c r="AX23" s="97"/>
+      <c r="AY23" s="97"/>
+      <c r="AZ23" s="97"/>
+      <c r="BA23" s="97"/>
+      <c r="BB23" s="97"/>
+      <c r="BC23" s="97"/>
+      <c r="BD23" s="97"/>
+      <c r="BE23" s="97"/>
+      <c r="BF23" s="97"/>
+      <c r="BG23" s="97"/>
+      <c r="BH23" s="97"/>
+      <c r="BI23" s="97"/>
+      <c r="BJ23" s="97"/>
+      <c r="BK23" s="97"/>
     </row>
     <row r="24" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="260" t="s">
+      <c r="A24" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="260"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="4">
         <v>19</v>
       </c>
-      <c r="H24" s="207">
+      <c r="H24" s="204">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="I24" s="212">
+      <c r="I24" s="209">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J24" s="234">
+      <c r="J24" s="231">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="100"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="100"/>
-      <c r="AU24" s="100"/>
-      <c r="AV24" s="100"/>
-      <c r="AW24" s="100"/>
-      <c r="AX24" s="100"/>
-      <c r="AY24" s="100"/>
-      <c r="AZ24" s="100"/>
-      <c r="BA24" s="100"/>
-      <c r="BB24" s="100"/>
-      <c r="BC24" s="100"/>
-      <c r="BD24" s="100"/>
-      <c r="BE24" s="100"/>
-      <c r="BF24" s="100"/>
-      <c r="BG24" s="100"/>
-      <c r="BH24" s="100"/>
-      <c r="BI24" s="100"/>
-      <c r="BJ24" s="100"/>
-      <c r="BK24" s="100"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="97"/>
+      <c r="AH24" s="97"/>
+      <c r="AI24" s="97"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="97"/>
+      <c r="AL24" s="97"/>
+      <c r="AM24" s="97"/>
+      <c r="AN24" s="97"/>
+      <c r="AO24" s="97"/>
+      <c r="AP24" s="97"/>
+      <c r="AQ24" s="97"/>
+      <c r="AR24" s="97"/>
+      <c r="AS24" s="97"/>
+      <c r="AT24" s="97"/>
+      <c r="AU24" s="97"/>
+      <c r="AV24" s="97"/>
+      <c r="AW24" s="97"/>
+      <c r="AX24" s="97"/>
+      <c r="AY24" s="97"/>
+      <c r="AZ24" s="97"/>
+      <c r="BA24" s="97"/>
+      <c r="BB24" s="97"/>
+      <c r="BC24" s="97"/>
+      <c r="BD24" s="97"/>
+      <c r="BE24" s="97"/>
+      <c r="BF24" s="97"/>
+      <c r="BG24" s="97"/>
+      <c r="BH24" s="97"/>
+      <c r="BI24" s="97"/>
+      <c r="BJ24" s="97"/>
+      <c r="BK24" s="97"/>
     </row>
     <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="261" t="s">
+      <c r="A25" s="258" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="261"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="186">
+      <c r="B25" s="258"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="258"/>
+      <c r="G25" s="183">
         <v>8.1</v>
       </c>
-      <c r="H25" s="208">
+      <c r="H25" s="205">
         <v>2.1989999999999998</v>
       </c>
-      <c r="I25" s="212">
+      <c r="I25" s="209">
         <v>1.996</v>
       </c>
-      <c r="J25" s="235">
+      <c r="J25" s="232">
         <v>1.861</v>
       </c>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="183"/>
-      <c r="Z25" s="183"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="183"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="183"/>
-      <c r="AJ25" s="183"/>
-      <c r="AK25" s="183"/>
-      <c r="AL25" s="183"/>
-      <c r="AM25" s="183"/>
-      <c r="AN25" s="183"/>
-      <c r="AO25" s="183"/>
-      <c r="AP25" s="183"/>
-      <c r="AQ25" s="183"/>
-      <c r="AR25" s="183"/>
-      <c r="AS25" s="183"/>
-      <c r="AT25" s="183"/>
-      <c r="AU25" s="183"/>
-      <c r="AV25" s="183"/>
-      <c r="AW25" s="183"/>
-      <c r="AX25" s="183"/>
-      <c r="AY25" s="183"/>
-      <c r="AZ25" s="183"/>
-      <c r="BA25" s="183"/>
-      <c r="BB25" s="183"/>
-      <c r="BC25" s="183"/>
-      <c r="BD25" s="183"/>
-      <c r="BE25" s="183"/>
-      <c r="BF25" s="183"/>
-      <c r="BG25" s="183"/>
-      <c r="BH25" s="183"/>
-      <c r="BI25" s="183"/>
-      <c r="BJ25" s="183"/>
-      <c r="BK25" s="183"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="180"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="180"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="180"/>
+      <c r="V25" s="180"/>
+      <c r="W25" s="180"/>
+      <c r="X25" s="180"/>
+      <c r="Y25" s="180"/>
+      <c r="Z25" s="180"/>
+      <c r="AA25" s="180"/>
+      <c r="AB25" s="180"/>
+      <c r="AC25" s="180"/>
+      <c r="AD25" s="180"/>
+      <c r="AE25" s="180"/>
+      <c r="AF25" s="180"/>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="180"/>
+      <c r="AJ25" s="180"/>
+      <c r="AK25" s="180"/>
+      <c r="AL25" s="180"/>
+      <c r="AM25" s="180"/>
+      <c r="AN25" s="180"/>
+      <c r="AO25" s="180"/>
+      <c r="AP25" s="180"/>
+      <c r="AQ25" s="180"/>
+      <c r="AR25" s="180"/>
+      <c r="AS25" s="180"/>
+      <c r="AT25" s="180"/>
+      <c r="AU25" s="180"/>
+      <c r="AV25" s="180"/>
+      <c r="AW25" s="180"/>
+      <c r="AX25" s="180"/>
+      <c r="AY25" s="180"/>
+      <c r="AZ25" s="180"/>
+      <c r="BA25" s="180"/>
+      <c r="BB25" s="180"/>
+      <c r="BC25" s="180"/>
+      <c r="BD25" s="180"/>
+      <c r="BE25" s="180"/>
+      <c r="BF25" s="180"/>
+      <c r="BG25" s="180"/>
+      <c r="BH25" s="180"/>
+      <c r="BI25" s="180"/>
+      <c r="BJ25" s="180"/>
+      <c r="BK25" s="180"/>
     </row>
     <row r="26" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="187"/>
-      <c r="P26" s="187"/>
-      <c r="Q26" s="187"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="187"/>
-      <c r="AG26" s="187"/>
-      <c r="AH26" s="187"/>
-      <c r="AI26" s="187"/>
-      <c r="AJ26" s="187"/>
-      <c r="AK26" s="187"/>
-      <c r="AL26" s="187"/>
-      <c r="AM26" s="187"/>
-      <c r="AN26" s="187"/>
-      <c r="AO26" s="187"/>
-      <c r="AP26" s="187"/>
-      <c r="AQ26" s="187"/>
-      <c r="AR26" s="187"/>
-      <c r="AS26" s="187"/>
-      <c r="AT26" s="187"/>
-      <c r="AU26" s="187"/>
-      <c r="AV26" s="187"/>
-      <c r="AW26" s="187"/>
-      <c r="AX26" s="187"/>
-      <c r="AY26" s="187"/>
-      <c r="AZ26" s="187"/>
-      <c r="BA26" s="187"/>
-      <c r="BB26" s="187"/>
-      <c r="BC26" s="187"/>
-      <c r="BD26" s="187"/>
-      <c r="BE26" s="187"/>
-      <c r="BF26" s="187"/>
-      <c r="BG26" s="187"/>
-      <c r="BH26" s="187"/>
-      <c r="BI26" s="187"/>
-      <c r="BJ26" s="187"/>
-      <c r="BK26" s="187"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="184"/>
+      <c r="Y26" s="184"/>
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="184"/>
+      <c r="AB26" s="184"/>
+      <c r="AC26" s="184"/>
+      <c r="AD26" s="184"/>
+      <c r="AE26" s="184"/>
+      <c r="AF26" s="184"/>
+      <c r="AG26" s="184"/>
+      <c r="AH26" s="184"/>
+      <c r="AI26" s="184"/>
+      <c r="AJ26" s="184"/>
+      <c r="AK26" s="184"/>
+      <c r="AL26" s="184"/>
+      <c r="AM26" s="184"/>
+      <c r="AN26" s="184"/>
+      <c r="AO26" s="184"/>
+      <c r="AP26" s="184"/>
+      <c r="AQ26" s="184"/>
+      <c r="AR26" s="184"/>
+      <c r="AS26" s="184"/>
+      <c r="AT26" s="184"/>
+      <c r="AU26" s="184"/>
+      <c r="AV26" s="184"/>
+      <c r="AW26" s="184"/>
+      <c r="AX26" s="184"/>
+      <c r="AY26" s="184"/>
+      <c r="AZ26" s="184"/>
+      <c r="BA26" s="184"/>
+      <c r="BB26" s="184"/>
+      <c r="BC26" s="184"/>
+      <c r="BD26" s="184"/>
+      <c r="BE26" s="184"/>
+      <c r="BF26" s="184"/>
+      <c r="BG26" s="184"/>
+      <c r="BH26" s="184"/>
+      <c r="BI26" s="184"/>
+      <c r="BJ26" s="184"/>
+      <c r="BK26" s="184"/>
     </row>
     <row r="27" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="184"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="184"/>
-      <c r="V27" s="184"/>
-      <c r="W27" s="184"/>
-      <c r="X27" s="184"/>
-      <c r="Y27" s="184"/>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="184"/>
-      <c r="AB27" s="184"/>
-      <c r="AC27" s="184"/>
-      <c r="AD27" s="184"/>
-      <c r="AE27" s="184"/>
-      <c r="AF27" s="184"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="184"/>
-      <c r="AJ27" s="184"/>
-      <c r="AK27" s="184"/>
-      <c r="AL27" s="184"/>
-      <c r="AM27" s="184"/>
-      <c r="AN27" s="184"/>
-      <c r="AO27" s="184"/>
-      <c r="AP27" s="184"/>
-      <c r="AQ27" s="184"/>
-      <c r="AR27" s="184"/>
-      <c r="AS27" s="184"/>
-      <c r="AT27" s="184"/>
-      <c r="AU27" s="184"/>
-      <c r="AV27" s="184"/>
-      <c r="AW27" s="184"/>
-      <c r="AX27" s="184"/>
-      <c r="AY27" s="184"/>
-      <c r="AZ27" s="184"/>
-      <c r="BA27" s="184"/>
-      <c r="BB27" s="184"/>
-      <c r="BC27" s="184"/>
-      <c r="BD27" s="184"/>
-      <c r="BE27" s="184"/>
-      <c r="BF27" s="184"/>
-      <c r="BG27" s="184"/>
-      <c r="BH27" s="184"/>
-      <c r="BI27" s="184"/>
-      <c r="BJ27" s="184"/>
-      <c r="BK27" s="184"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="181"/>
+      <c r="AD27" s="181"/>
+      <c r="AE27" s="181"/>
+      <c r="AF27" s="181"/>
+      <c r="AG27" s="181"/>
+      <c r="AH27" s="181"/>
+      <c r="AI27" s="181"/>
+      <c r="AJ27" s="181"/>
+      <c r="AK27" s="181"/>
+      <c r="AL27" s="181"/>
+      <c r="AM27" s="181"/>
+      <c r="AN27" s="181"/>
+      <c r="AO27" s="181"/>
+      <c r="AP27" s="181"/>
+      <c r="AQ27" s="181"/>
+      <c r="AR27" s="181"/>
+      <c r="AS27" s="181"/>
+      <c r="AT27" s="181"/>
+      <c r="AU27" s="181"/>
+      <c r="AV27" s="181"/>
+      <c r="AW27" s="181"/>
+      <c r="AX27" s="181"/>
+      <c r="AY27" s="181"/>
+      <c r="AZ27" s="181"/>
+      <c r="BA27" s="181"/>
+      <c r="BB27" s="181"/>
+      <c r="BC27" s="181"/>
+      <c r="BD27" s="181"/>
+      <c r="BE27" s="181"/>
+      <c r="BF27" s="181"/>
+      <c r="BG27" s="181"/>
+      <c r="BH27" s="181"/>
+      <c r="BI27" s="181"/>
+      <c r="BJ27" s="181"/>
+      <c r="BK27" s="181"/>
     </row>
     <row r="28" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="184"/>
-      <c r="AJ28" s="184"/>
-      <c r="AK28" s="184"/>
-      <c r="AL28" s="184"/>
-      <c r="AM28" s="184"/>
-      <c r="AN28" s="184"/>
-      <c r="AO28" s="184"/>
-      <c r="AP28" s="184"/>
-      <c r="AQ28" s="184"/>
-      <c r="AR28" s="184"/>
-      <c r="AS28" s="184"/>
-      <c r="AT28" s="184"/>
-      <c r="AU28" s="184"/>
-      <c r="AV28" s="184"/>
-      <c r="AW28" s="184"/>
-      <c r="AX28" s="184"/>
-      <c r="AY28" s="184"/>
-      <c r="AZ28" s="184"/>
-      <c r="BA28" s="184"/>
-      <c r="BB28" s="184"/>
-      <c r="BC28" s="184"/>
-      <c r="BD28" s="184"/>
-      <c r="BE28" s="184"/>
-      <c r="BF28" s="184"/>
-      <c r="BG28" s="184"/>
-      <c r="BH28" s="184"/>
-      <c r="BI28" s="184"/>
-      <c r="BJ28" s="184"/>
-      <c r="BK28" s="184"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="181"/>
+      <c r="AA28" s="181"/>
+      <c r="AB28" s="181"/>
+      <c r="AC28" s="181"/>
+      <c r="AD28" s="181"/>
+      <c r="AE28" s="181"/>
+      <c r="AF28" s="181"/>
+      <c r="AG28" s="181"/>
+      <c r="AH28" s="181"/>
+      <c r="AI28" s="181"/>
+      <c r="AJ28" s="181"/>
+      <c r="AK28" s="181"/>
+      <c r="AL28" s="181"/>
+      <c r="AM28" s="181"/>
+      <c r="AN28" s="181"/>
+      <c r="AO28" s="181"/>
+      <c r="AP28" s="181"/>
+      <c r="AQ28" s="181"/>
+      <c r="AR28" s="181"/>
+      <c r="AS28" s="181"/>
+      <c r="AT28" s="181"/>
+      <c r="AU28" s="181"/>
+      <c r="AV28" s="181"/>
+      <c r="AW28" s="181"/>
+      <c r="AX28" s="181"/>
+      <c r="AY28" s="181"/>
+      <c r="AZ28" s="181"/>
+      <c r="BA28" s="181"/>
+      <c r="BB28" s="181"/>
+      <c r="BC28" s="181"/>
+      <c r="BD28" s="181"/>
+      <c r="BE28" s="181"/>
+      <c r="BF28" s="181"/>
+      <c r="BG28" s="181"/>
+      <c r="BH28" s="181"/>
+      <c r="BI28" s="181"/>
+      <c r="BJ28" s="181"/>
+      <c r="BK28" s="181"/>
     </row>
     <row r="29" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="184"/>
-      <c r="S29" s="184"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="184"/>
-      <c r="V29" s="184"/>
-      <c r="W29" s="184"/>
-      <c r="X29" s="184"/>
-      <c r="Y29" s="184"/>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="184"/>
-      <c r="AB29" s="184"/>
-      <c r="AC29" s="184"/>
-      <c r="AD29" s="184"/>
-      <c r="AE29" s="184"/>
-      <c r="AF29" s="184"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="184"/>
-      <c r="AJ29" s="184"/>
-      <c r="AK29" s="184"/>
-      <c r="AL29" s="184"/>
-      <c r="AM29" s="184"/>
-      <c r="AN29" s="184"/>
-      <c r="AO29" s="184"/>
-      <c r="AP29" s="184"/>
-      <c r="AQ29" s="184"/>
-      <c r="AR29" s="184"/>
-      <c r="AS29" s="184"/>
-      <c r="AT29" s="184"/>
-      <c r="AU29" s="184"/>
-      <c r="AV29" s="184"/>
-      <c r="AW29" s="184"/>
-      <c r="AX29" s="184"/>
-      <c r="AY29" s="184"/>
-      <c r="AZ29" s="184"/>
-      <c r="BA29" s="184"/>
-      <c r="BB29" s="184"/>
-      <c r="BC29" s="184"/>
-      <c r="BD29" s="184"/>
-      <c r="BE29" s="184"/>
-      <c r="BF29" s="184"/>
-      <c r="BG29" s="184"/>
-      <c r="BH29" s="184"/>
-      <c r="BI29" s="184"/>
-      <c r="BJ29" s="184"/>
-      <c r="BK29" s="184"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
+      <c r="AB29" s="181"/>
+      <c r="AC29" s="181"/>
+      <c r="AD29" s="181"/>
+      <c r="AE29" s="181"/>
+      <c r="AF29" s="181"/>
+      <c r="AG29" s="181"/>
+      <c r="AH29" s="181"/>
+      <c r="AI29" s="181"/>
+      <c r="AJ29" s="181"/>
+      <c r="AK29" s="181"/>
+      <c r="AL29" s="181"/>
+      <c r="AM29" s="181"/>
+      <c r="AN29" s="181"/>
+      <c r="AO29" s="181"/>
+      <c r="AP29" s="181"/>
+      <c r="AQ29" s="181"/>
+      <c r="AR29" s="181"/>
+      <c r="AS29" s="181"/>
+      <c r="AT29" s="181"/>
+      <c r="AU29" s="181"/>
+      <c r="AV29" s="181"/>
+      <c r="AW29" s="181"/>
+      <c r="AX29" s="181"/>
+      <c r="AY29" s="181"/>
+      <c r="AZ29" s="181"/>
+      <c r="BA29" s="181"/>
+      <c r="BB29" s="181"/>
+      <c r="BC29" s="181"/>
+      <c r="BD29" s="181"/>
+      <c r="BE29" s="181"/>
+      <c r="BF29" s="181"/>
+      <c r="BG29" s="181"/>
+      <c r="BH29" s="181"/>
+      <c r="BI29" s="181"/>
+      <c r="BJ29" s="181"/>
+      <c r="BK29" s="181"/>
     </row>
     <row r="30" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="185"/>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="184"/>
-      <c r="AD30" s="184"/>
-      <c r="AE30" s="184"/>
-      <c r="AF30" s="184"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="184"/>
-      <c r="AJ30" s="184"/>
-      <c r="AK30" s="184"/>
-      <c r="AL30" s="184"/>
-      <c r="AM30" s="184"/>
-      <c r="AN30" s="184"/>
-      <c r="AO30" s="184"/>
-      <c r="AP30" s="184"/>
-      <c r="AQ30" s="184"/>
-      <c r="AR30" s="184"/>
-      <c r="AS30" s="184"/>
-      <c r="AT30" s="184"/>
-      <c r="AU30" s="184"/>
-      <c r="AV30" s="184"/>
-      <c r="AW30" s="184"/>
-      <c r="AX30" s="184"/>
-      <c r="AY30" s="184"/>
-      <c r="AZ30" s="184"/>
-      <c r="BA30" s="184"/>
-      <c r="BB30" s="184"/>
-      <c r="BC30" s="184"/>
-      <c r="BD30" s="184"/>
-      <c r="BE30" s="184"/>
-      <c r="BF30" s="184"/>
-      <c r="BG30" s="184"/>
-      <c r="BH30" s="184"/>
-      <c r="BI30" s="184"/>
-      <c r="BJ30" s="184"/>
-      <c r="BK30" s="184"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="181"/>
+      <c r="Z30" s="181"/>
+      <c r="AA30" s="181"/>
+      <c r="AB30" s="181"/>
+      <c r="AC30" s="181"/>
+      <c r="AD30" s="181"/>
+      <c r="AE30" s="181"/>
+      <c r="AF30" s="181"/>
+      <c r="AG30" s="181"/>
+      <c r="AH30" s="181"/>
+      <c r="AI30" s="181"/>
+      <c r="AJ30" s="181"/>
+      <c r="AK30" s="181"/>
+      <c r="AL30" s="181"/>
+      <c r="AM30" s="181"/>
+      <c r="AN30" s="181"/>
+      <c r="AO30" s="181"/>
+      <c r="AP30" s="181"/>
+      <c r="AQ30" s="181"/>
+      <c r="AR30" s="181"/>
+      <c r="AS30" s="181"/>
+      <c r="AT30" s="181"/>
+      <c r="AU30" s="181"/>
+      <c r="AV30" s="181"/>
+      <c r="AW30" s="181"/>
+      <c r="AX30" s="181"/>
+      <c r="AY30" s="181"/>
+      <c r="AZ30" s="181"/>
+      <c r="BA30" s="181"/>
+      <c r="BB30" s="181"/>
+      <c r="BC30" s="181"/>
+      <c r="BD30" s="181"/>
+      <c r="BE30" s="181"/>
+      <c r="BF30" s="181"/>
+      <c r="BG30" s="181"/>
+      <c r="BH30" s="181"/>
+      <c r="BI30" s="181"/>
+      <c r="BJ30" s="181"/>
+      <c r="BK30" s="181"/>
     </row>
     <row r="31" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185"/>
-      <c r="B31" s="185"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="185"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="184"/>
-      <c r="S31" s="184"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="184"/>
-      <c r="V31" s="184"/>
-      <c r="W31" s="184"/>
-      <c r="X31" s="184"/>
-      <c r="Y31" s="184"/>
-      <c r="Z31" s="184"/>
-      <c r="AA31" s="184"/>
-      <c r="AB31" s="184"/>
-      <c r="AC31" s="184"/>
-      <c r="AD31" s="184"/>
-      <c r="AE31" s="184"/>
-      <c r="AF31" s="184"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="184"/>
-      <c r="AJ31" s="184"/>
-      <c r="AK31" s="184"/>
-      <c r="AL31" s="184"/>
-      <c r="AM31" s="184"/>
-      <c r="AN31" s="184"/>
-      <c r="AO31" s="184"/>
-      <c r="AP31" s="184"/>
-      <c r="AQ31" s="184"/>
-      <c r="AR31" s="184"/>
-      <c r="AS31" s="184"/>
-      <c r="AT31" s="184"/>
-      <c r="AU31" s="184"/>
-      <c r="AV31" s="184"/>
-      <c r="AW31" s="184"/>
-      <c r="AX31" s="184"/>
-      <c r="AY31" s="184"/>
-      <c r="AZ31" s="184"/>
-      <c r="BA31" s="184"/>
-      <c r="BB31" s="184"/>
-      <c r="BC31" s="184"/>
-      <c r="BD31" s="184"/>
-      <c r="BE31" s="184"/>
-      <c r="BF31" s="184"/>
-      <c r="BG31" s="184"/>
-      <c r="BH31" s="184"/>
-      <c r="BI31" s="184"/>
-      <c r="BJ31" s="184"/>
-      <c r="BK31" s="184"/>
+      <c r="H31" s="181"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="181"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="181"/>
+      <c r="AB31" s="181"/>
+      <c r="AC31" s="181"/>
+      <c r="AD31" s="181"/>
+      <c r="AE31" s="181"/>
+      <c r="AF31" s="181"/>
+      <c r="AG31" s="181"/>
+      <c r="AH31" s="181"/>
+      <c r="AI31" s="181"/>
+      <c r="AJ31" s="181"/>
+      <c r="AK31" s="181"/>
+      <c r="AL31" s="181"/>
+      <c r="AM31" s="181"/>
+      <c r="AN31" s="181"/>
+      <c r="AO31" s="181"/>
+      <c r="AP31" s="181"/>
+      <c r="AQ31" s="181"/>
+      <c r="AR31" s="181"/>
+      <c r="AS31" s="181"/>
+      <c r="AT31" s="181"/>
+      <c r="AU31" s="181"/>
+      <c r="AV31" s="181"/>
+      <c r="AW31" s="181"/>
+      <c r="AX31" s="181"/>
+      <c r="AY31" s="181"/>
+      <c r="AZ31" s="181"/>
+      <c r="BA31" s="181"/>
+      <c r="BB31" s="181"/>
+      <c r="BC31" s="181"/>
+      <c r="BD31" s="181"/>
+      <c r="BE31" s="181"/>
+      <c r="BF31" s="181"/>
+      <c r="BG31" s="181"/>
+      <c r="BH31" s="181"/>
+      <c r="BI31" s="181"/>
+      <c r="BJ31" s="181"/>
+      <c r="BK31" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="25">
